--- a/Task3/Data/Raw_data/FatigueSampleInventory.xlsx
+++ b/Task3/Data/Raw_data/FatigueSampleInventory.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Fatigue Sample Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,105 +36,120 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specimen ID</t>
+  </si>
+  <si>
+    <t>Cycles at NDE Test</t>
+  </si>
+  <si>
+    <t>Cycles at Failure</t>
+  </si>
+  <si>
+    <t>Current Unfailed Cycles</t>
+  </si>
+  <si>
+    <t>Stress (ksi)</t>
+  </si>
+  <si>
     <t>Note</t>
   </si>
   <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>41C</t>
   </si>
   <si>
+    <t>43C</t>
+  </si>
+  <si>
+    <t>44C</t>
+  </si>
+  <si>
+    <t>45C</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>13C</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>35C</t>
+  </si>
+  <si>
+    <t>24C</t>
+  </si>
+  <si>
+    <t>34C</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>10C</t>
+  </si>
+  <si>
+    <t>19C</t>
+  </si>
+  <si>
+    <t>30C</t>
+  </si>
+  <si>
+    <t>32C</t>
+  </si>
+  <si>
+    <t>46C</t>
+  </si>
+  <si>
+    <t>23C</t>
+  </si>
+  <si>
+    <t>25C</t>
+  </si>
+  <si>
+    <t>21C</t>
+  </si>
+  <si>
+    <t>47C</t>
+  </si>
+  <si>
+    <t>27C</t>
+  </si>
+  <si>
+    <t>26C</t>
+  </si>
+  <si>
+    <t>28C</t>
+  </si>
+  <si>
+    <t>48C</t>
+  </si>
+  <si>
+    <t>37C</t>
+  </si>
+  <si>
+    <t>39C</t>
+  </si>
+  <si>
     <t>42C</t>
   </si>
   <si>
-    <t>43C</t>
-  </si>
-  <si>
-    <t>44C</t>
-  </si>
-  <si>
-    <t>45C</t>
-  </si>
-  <si>
-    <t>46C</t>
-  </si>
-  <si>
-    <t>47C</t>
-  </si>
-  <si>
-    <t>48C</t>
-  </si>
-  <si>
     <t>49C</t>
   </si>
   <si>
-    <t>7C</t>
-  </si>
-  <si>
-    <t>13C</t>
-  </si>
-  <si>
-    <t>8C</t>
-  </si>
-  <si>
-    <t>35C</t>
-  </si>
-  <si>
-    <t>24C</t>
-  </si>
-  <si>
-    <t>34C</t>
-  </si>
-  <si>
-    <t>9C</t>
-  </si>
-  <si>
-    <t>10C</t>
-  </si>
-  <si>
-    <t>19C</t>
-  </si>
-  <si>
-    <t>30C</t>
-  </si>
-  <si>
-    <t>32C</t>
-  </si>
-  <si>
-    <t>23C</t>
-  </si>
-  <si>
-    <t>25C</t>
-  </si>
-  <si>
-    <t>21C</t>
-  </si>
-  <si>
-    <t>27C</t>
-  </si>
-  <si>
-    <t>26C</t>
-  </si>
-  <si>
-    <t>28C</t>
-  </si>
-  <si>
-    <t>37C</t>
-  </si>
-  <si>
-    <t>39C</t>
-  </si>
-  <si>
     <t>20C</t>
   </si>
   <si>
-    <t>Stress (ksi)</t>
-  </si>
-  <si>
     <t>36C</t>
   </si>
   <si>
+    <t>Cracked</t>
+  </si>
+  <si>
     <t>6C</t>
   </si>
   <si>
@@ -143,38 +159,23 @@
     <t>29C</t>
   </si>
   <si>
-    <t>Cracked</t>
-  </si>
-  <si>
     <t>14C</t>
   </si>
   <si>
+    <t>Different stress level</t>
+  </si>
+  <si>
     <t>38C</t>
   </si>
   <si>
-    <t>Different stress level</t>
-  </si>
-  <si>
     <t>16C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Specimen ID</t>
-  </si>
-  <si>
-    <t>Cycles at NDE Test</t>
-  </si>
-  <si>
-    <t>Cycles at Failure</t>
-  </si>
-  <si>
-    <t>Current Unfailed Cycles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,10 +613,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35:E37"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="10.42578125" style="1" customWidth="1"/>
@@ -625,35 +626,35 @@
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="42" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -667,12 +668,12 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -684,12 +685,12 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -703,12 +704,12 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -722,7 +723,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -739,7 +740,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -756,7 +757,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -773,7 +774,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -790,7 +791,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -807,7 +808,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -824,7 +825,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -841,7 +842,7 @@
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -858,7 +859,7 @@
       </c>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -868,14 +869,16 @@
       <c r="C14" s="5">
         <v>450000</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>914392</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4">
         <v>88</v>
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -892,7 +895,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -911,12 +914,12 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5">
         <v>450000</v>
@@ -928,63 +931,69 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5">
         <v>600000</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5">
+        <v>2855225</v>
+      </c>
       <c r="F18" s="4">
         <v>88</v>
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5">
         <v>600000</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5">
+        <v>2044844</v>
+      </c>
       <c r="F19" s="4">
         <v>88</v>
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5">
         <v>600000</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5">
+        <v>800007</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="4">
         <v>88</v>
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5">
         <v>600000</v>
@@ -996,12 +1005,12 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5">
         <v>750000</v>
@@ -1015,12 +1024,12 @@
       </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5">
         <v>750000</v>
@@ -1034,12 +1043,12 @@
       </c>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="5">
         <v>750000</v>
@@ -1053,12 +1062,12 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5">
         <v>750000</v>
@@ -1072,12 +1081,12 @@
       </c>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5">
         <v>900000</v>
@@ -1091,12 +1100,12 @@
       </c>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C27" s="5">
         <v>900000</v>
@@ -1110,12 +1119,12 @@
       </c>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C28" s="5">
         <v>900000</v>
@@ -1129,12 +1138,12 @@
       </c>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C29" s="5">
         <v>900000</v>
@@ -1148,12 +1157,12 @@
       </c>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C30" s="5">
         <v>2000000</v>
@@ -1165,12 +1174,12 @@
       </c>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C31" s="5">
         <v>348957</v>
@@ -1183,15 +1192,15 @@
         <v>88</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5">
         <v>318528</v>
@@ -1204,15 +1213,15 @@
         <v>88</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C33" s="5">
         <v>1073548</v>
@@ -1225,15 +1234,15 @@
         <v>88</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C34" s="5">
         <v>784540</v>
@@ -1246,15 +1255,15 @@
         <v>88</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C35" s="5">
         <v>2000000</v>
@@ -1265,15 +1274,15 @@
         <v>84</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C36" s="5">
         <v>2000000</v>
@@ -1284,15 +1293,15 @@
         <v>84</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C37" s="5">
         <v>2000000</v>
@@ -1303,7 +1312,7 @@
         <v>80</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Task3/Data/Raw_data/FatigueSampleInventory.xlsx
+++ b/Task3/Data/Raw_data/FatigueSampleInventory.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>24C</t>
+  </si>
+  <si>
+    <t>Running</t>
   </si>
   <si>
     <t>34C</t>
@@ -175,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +220,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -232,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -255,6 +264,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -262,7 +284,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,6 +313,12 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -613,7 +641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -802,35 +830,43 @@
         <v>300000</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="11">
+        <v>1630000</v>
+      </c>
       <c r="F10" s="4">
         <v>88</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5">
         <v>300000</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="12">
+        <v>1000000</v>
+      </c>
       <c r="F11" s="4">
         <v>88</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5">
         <v>300000</v>
@@ -847,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5">
         <v>300000</v>
@@ -864,7 +900,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>450000</v>
@@ -883,12 +919,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5">
         <v>450000</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="11">
+        <v>1553303</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="4">
         <v>88</v>
@@ -900,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5">
         <v>450000</v>
@@ -919,12 +957,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5">
         <v>450000</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="11">
+        <v>897380</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4">
         <v>88</v>
@@ -936,7 +976,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5">
         <v>600000</v>
@@ -955,7 +995,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5">
         <v>600000</v>
@@ -974,7 +1014,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5">
         <v>600000</v>
@@ -993,13 +1033,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5">
         <v>600000</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="11">
+        <v>2703203</v>
+      </c>
       <c r="F21" s="4">
         <v>88</v>
       </c>
@@ -1010,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5">
         <v>750000</v>
@@ -1029,7 +1071,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5">
         <v>750000</v>
@@ -1048,7 +1090,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5">
         <v>750000</v>
@@ -1067,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5">
         <v>750000</v>
@@ -1086,7 +1128,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="5">
         <v>900000</v>
@@ -1105,7 +1147,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5">
         <v>900000</v>
@@ -1124,7 +1166,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5">
         <v>900000</v>
@@ -1143,7 +1185,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5">
         <v>900000</v>
@@ -1162,7 +1204,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="5">
         <v>2000000</v>
@@ -1179,7 +1221,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="5">
         <v>348957</v>
@@ -1192,7 +1234,7 @@
         <v>88</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1200,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5">
         <v>318528</v>
@@ -1213,7 +1255,7 @@
         <v>88</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1221,7 +1263,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="5">
         <v>1073548</v>
@@ -1234,7 +1276,7 @@
         <v>88</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1242,7 +1284,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="5">
         <v>784540</v>
@@ -1255,7 +1297,7 @@
         <v>88</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1263,7 +1305,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="5">
         <v>2000000</v>
@@ -1274,7 +1316,7 @@
         <v>84</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1282,7 +1324,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="5">
         <v>2000000</v>
@@ -1293,7 +1335,7 @@
         <v>84</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1301,7 +1343,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="5">
         <v>2000000</v>
@@ -1312,7 +1354,7 @@
         <v>80</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
